--- a/gestao_projetos/Métricas do Projeto.xlsx
+++ b/gestao_projetos/Métricas do Projeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\ProjetoIntegrador\gestao_projetos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D281185-9FF0-444E-9CC1-FC8F75C44820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F46A6DA-F321-4548-A8EC-0A4F8FA909EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8811EB05-482D-484B-B939-AD349BE83675}"/>
   </bookViews>
@@ -359,7 +359,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -715,29 +715,11 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -789,9 +771,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -804,53 +783,105 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -860,36 +891,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,20 +911,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -938,8 +936,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3969F56B-1F15-4999-896E-FF0417B691E3}" name="Tabela1" displayName="Tabela1" ref="B9:I11" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B9:I11" xr:uid="{3969F56B-1F15-4999-896E-FF0417B691E3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3969F56B-1F15-4999-896E-FF0417B691E3}" name="Tabela1" displayName="Tabela1" ref="B10:I12" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B10:I12" xr:uid="{3969F56B-1F15-4999-896E-FF0417B691E3}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{2DB1350A-D192-4BB8-B3D8-B5974834F0E6}" name="Sprint"/>
     <tableColumn id="2" xr3:uid="{9BFCD5D1-D9FE-4925-85E8-399416998A8A}" name="Período"/>
@@ -1261,1755 +1259,1761 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.77734375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="4"/>
-    <col min="10" max="10" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.77734375" style="4"/>
+    <col min="1" max="1" width="62.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.77734375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="1"/>
+    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="A2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="J5" s="4" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="12">
         <v>2</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="15">
         <v>45005</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="15">
         <v>45005</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="22">
-        <v>1</v>
-      </c>
-      <c r="H6" s="18" t="str">
+      <c r="F6" s="12"/>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12" t="str">
         <f>IF(G6=1,"Concluído", IF(G6&gt;0,"Em Andamento","A Iniciar"))</f>
         <v>Concluído</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="1">
         <f>G6*C6</f>
         <v>2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="1">
         <f ca="1">IF(E6&lt;=TODAY(),1,0)</f>
         <v>1</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <f>IF(E6-D6=0,1,E6-D6)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="1">
         <f t="shared" ref="M6:M32" si="0">C6/L6</f>
         <v>2</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="17">
         <f t="shared" ref="N6:N33" ca="1" si="1">IF(D6&lt;=TODAY(),IF(E6&lt;=TODAY(),L6,TODAY()-D6),0)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="1">
         <f>G6*C6</f>
         <v>2</v>
       </c>
-      <c r="P6" s="24"/>
+      <c r="P6" s="18"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="12">
         <v>0.5</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="15">
         <v>45005</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="15">
         <v>45005</v>
       </c>
-      <c r="F7" s="18">
-        <v>1</v>
-      </c>
-      <c r="G7" s="22">
-        <v>1</v>
-      </c>
-      <c r="H7" s="18" t="str">
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12" t="str">
         <f t="shared" ref="H7:H37" si="2">IF(G7=1,"Concluído", IF(G7&gt;0,"Em Andamento","A Iniciar"))</f>
         <v>Concluído</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="1">
         <f t="shared" ref="J7:J37" si="3">G7*C7</f>
         <v>0.5</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="1">
         <f t="shared" ref="K7:K37" ca="1" si="4">IF(E7&lt;=TODAY(),1,0)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <f t="shared" ref="L7:L37" si="5">IF(E7-D7=0,1,E7-D7)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O7" s="4">
-        <f t="shared" ref="O7:O38" si="6">G7*C7</f>
+      <c r="O7" s="1">
+        <f t="shared" ref="O7:O33" si="6">G7*C7</f>
         <v>0.5</v>
       </c>
-      <c r="P7" s="24"/>
+      <c r="P7" s="18"/>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="15">
         <v>45017</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="15">
         <v>45017</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="22">
-        <v>1</v>
-      </c>
-      <c r="H8" s="18" t="str">
+      <c r="F8" s="12"/>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="1">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="P8" s="24"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="12">
         <v>2</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="15">
         <v>45018</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="15">
         <v>45018</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="22">
-        <v>1</v>
-      </c>
-      <c r="H9" s="18" t="str">
+      <c r="F9" s="12"/>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="1">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="P9" s="24"/>
+      <c r="P9" s="18"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="12">
         <v>0.5</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="15">
         <v>45018</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="15">
         <v>45018</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="12">
         <v>4</v>
       </c>
-      <c r="G10" s="22">
-        <v>1</v>
-      </c>
-      <c r="H10" s="18" t="str">
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="1">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="P10" s="24"/>
+      <c r="P10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="12">
         <v>1.5</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="15">
         <v>45018</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="15">
         <v>45018</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="22">
-        <v>1</v>
-      </c>
-      <c r="H11" s="18" t="str">
+      <c r="F11" s="12"/>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="1">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="1">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="1">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="P11" s="24"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="12">
         <v>2</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="15">
         <v>45028</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="15">
         <v>45028</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="22">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18" t="str">
+      <c r="F12" s="12"/>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="1">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="P12" s="24"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="12">
         <v>0.5</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="15">
         <v>45026</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="15">
         <v>45026</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="12">
         <v>6</v>
       </c>
-      <c r="G13" s="22">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18" t="str">
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="1">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="P13" s="24"/>
+      <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="18">
-        <v>1</v>
-      </c>
-      <c r="D14" s="21">
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
         <v>45031</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="15">
         <v>45031</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="22">
-        <v>1</v>
-      </c>
-      <c r="H14" s="18" t="str">
+      <c r="F14" s="12"/>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P14" s="24"/>
+      <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="26">
-        <v>1</v>
-      </c>
-      <c r="D15" s="21">
+      <c r="C15" s="19">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
         <v>45031</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="15">
         <v>45031</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="12">
         <v>9</v>
       </c>
-      <c r="G15" s="22">
-        <v>1</v>
-      </c>
-      <c r="H15" s="18" t="str">
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P15" s="24"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="12">
         <v>3</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="15">
         <v>44992</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="15">
         <v>44992</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="22">
-        <v>1</v>
-      </c>
-      <c r="H16" s="18" t="str">
+      <c r="F16" s="12"/>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="1">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="P16" s="24"/>
+      <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="12">
         <v>3</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="15">
         <v>45003</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="15">
         <v>45003</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="12">
         <v>11</v>
       </c>
-      <c r="G17" s="22">
-        <v>1</v>
-      </c>
-      <c r="H17" s="18" t="str">
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="1">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="P17" s="24"/>
+      <c r="P17" s="18"/>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="26">
-        <v>1</v>
-      </c>
-      <c r="D18" s="21">
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15">
         <v>45020</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="15">
         <v>45020</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="12">
         <v>12</v>
       </c>
-      <c r="G18" s="22">
-        <v>1</v>
-      </c>
-      <c r="H18" s="18" t="str">
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P18" s="24"/>
+      <c r="P18" s="18"/>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="12">
         <v>4</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="15">
         <v>45017</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="15">
         <v>45071</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="12">
         <v>12</v>
       </c>
-      <c r="G19" s="22">
-        <v>1</v>
-      </c>
-      <c r="H19" s="18" t="str">
+      <c r="G19" s="16">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="1">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="1">
         <f t="shared" si="0"/>
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>54</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="1">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P19" s="24"/>
+      <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="12">
         <v>3</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="15">
         <v>45072</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="15">
         <v>45076</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="12">
         <v>14</v>
       </c>
-      <c r="G20" s="22">
-        <v>1</v>
-      </c>
-      <c r="H20" s="18" t="str">
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="1">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="1">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="1">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="P20" s="24"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="12">
         <v>2</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="15">
         <v>45069</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="15">
         <v>45071</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="12">
         <v>12.14</v>
       </c>
-      <c r="G21" s="22">
-        <v>1</v>
-      </c>
-      <c r="H21" s="18" t="str">
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="1">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="P21" s="24"/>
+      <c r="P21" s="18"/>
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="18">
-        <v>1</v>
-      </c>
-      <c r="D22" s="21">
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15">
         <v>45070</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="15">
         <v>45070</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="12">
         <v>16</v>
       </c>
-      <c r="G22" s="22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="18" t="str">
+      <c r="G22" s="16">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P22" s="24"/>
+      <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="12">
         <v>8</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="15">
         <v>45003</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="15">
         <v>45066</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="12">
         <v>12</v>
       </c>
-      <c r="G23" s="22">
-        <v>1</v>
-      </c>
-      <c r="H23" s="18" t="str">
+      <c r="G23" s="16">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="1">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="1">
         <f t="shared" si="0"/>
         <v>0.12698412698412698</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>63</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="1">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="P23" s="24"/>
+      <c r="P23" s="18"/>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="45"/>
+      <c r="B24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="12">
         <v>2</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="15">
         <v>45070</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="15">
         <v>45070</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="12">
         <v>18</v>
       </c>
-      <c r="G24" s="22">
-        <v>1</v>
-      </c>
-      <c r="H24" s="18" t="str">
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="1">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="P24" s="24"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="18">
-        <v>1</v>
-      </c>
-      <c r="D25" s="21">
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15">
         <v>45015</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="15">
         <v>45015</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="22">
-        <v>1</v>
-      </c>
-      <c r="H25" s="18" t="str">
+      <c r="F25" s="12"/>
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+      <c r="H25" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P25" s="24"/>
+      <c r="P25" s="18"/>
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="18">
-        <v>1</v>
-      </c>
-      <c r="D26" s="21">
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15">
         <v>45015</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="15">
         <v>45015</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="12">
         <v>20</v>
       </c>
-      <c r="G26" s="22">
-        <v>1</v>
-      </c>
-      <c r="H26" s="18" t="str">
+      <c r="G26" s="16">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="P26" s="24"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="12">
         <v>0.5</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="15">
         <v>45039</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="15">
         <v>45039</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="12">
         <v>12</v>
       </c>
-      <c r="G27" s="22">
-        <v>1</v>
-      </c>
-      <c r="H27" s="18" t="str">
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="1">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="P27" s="24"/>
+      <c r="P27" s="18"/>
     </row>
     <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="12">
         <v>0.5</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="15">
         <v>45039</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="15">
         <v>45039</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="12">
         <v>14</v>
       </c>
-      <c r="G28" s="22">
-        <v>1</v>
-      </c>
-      <c r="H28" s="18" t="str">
+      <c r="G28" s="16">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="1">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="P28" s="24"/>
+      <c r="P28" s="18"/>
     </row>
     <row r="29" spans="1:16" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="12">
         <v>0.5</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="15">
         <v>45089</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="15">
         <v>45089</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="12">
         <v>14</v>
       </c>
-      <c r="G29" s="22">
-        <v>1</v>
-      </c>
-      <c r="H29" s="18" t="str">
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+      <c r="H29" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Concluído</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="1">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="P29" s="24"/>
+      <c r="P29" s="18"/>
     </row>
     <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="18">
-        <v>1</v>
-      </c>
-      <c r="D30" s="21">
+      <c r="C30" s="12">
+        <v>1</v>
+      </c>
+      <c r="D30" s="15">
         <v>45254</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="15">
         <v>45254</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="12">
         <v>12</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="16">
         <v>0</v>
       </c>
-      <c r="H30" s="18" t="str">
+      <c r="H30" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A Iniciar</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N30" s="23">
+      <c r="N30" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P30" s="24"/>
+      <c r="P30" s="18"/>
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="12">
         <v>1.5</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="15">
         <v>45255</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="15">
         <v>45255</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="12">
         <v>14</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="16">
         <v>0</v>
       </c>
-      <c r="H31" s="18" t="str">
+      <c r="H31" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A Iniciar</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="1">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="N31" s="23">
+      <c r="N31" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P31" s="24"/>
+      <c r="P31" s="18"/>
     </row>
     <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="12">
         <v>0.5</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="15">
         <v>45256</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="15">
         <v>45256</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="12">
         <v>12</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="16">
         <v>0</v>
       </c>
-      <c r="H32" s="18" t="str">
+      <c r="H32" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A Iniciar</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N32" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P32" s="24"/>
+      <c r="P32" s="18"/>
     </row>
     <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="12">
         <v>0.5</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="15">
         <v>45256</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="15">
         <v>45256</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="12">
         <v>14</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="16">
         <v>0</v>
       </c>
-      <c r="H33" s="18" t="str">
+      <c r="H33" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A Iniciar</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="1">
         <f>C33/L33</f>
         <v>0.5</v>
       </c>
-      <c r="N33" s="23">
+      <c r="N33" s="17">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P33" s="24"/>
-    </row>
-    <row r="34" spans="1:17" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="19" t="s">
+      <c r="P33" s="18"/>
+    </row>
+    <row r="34" spans="1:17" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="12">
         <v>50</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="15">
         <v>45017</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="15">
         <v>45245</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="22">
+      <c r="F34" s="12"/>
+      <c r="G34" s="16">
         <v>0.7</v>
       </c>
-      <c r="H34" s="18" t="str">
+      <c r="H34" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Em Andamento</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="1">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="1">
         <f t="shared" si="5"/>
         <v>228</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="1">
         <f>C34/L34</f>
         <v>0.21929824561403508</v>
       </c>
-      <c r="N34" s="23">
+      <c r="N34" s="17">
         <f ca="1">IF(D34&lt;=TODAY(),IF(E34&lt;=TODAY(),L34,TODAY()-D34),0)</f>
-        <v>148</v>
-      </c>
-      <c r="O34" s="24">
+        <v>149</v>
+      </c>
+      <c r="O34" s="18">
         <f ca="1">N34*M34</f>
-        <v>32.456140350877192</v>
-      </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="4"/>
+        <v>32.675438596491226</v>
+      </c>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="12">
         <v>120</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="15">
         <v>45047</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="15">
         <v>45245</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="12">
         <v>29</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="16">
         <v>0.5</v>
       </c>
-      <c r="H35" s="18" t="str">
+      <c r="H35" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Em Andamento</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="1">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="1">
         <f t="shared" si="5"/>
         <v>198</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="1">
         <f t="shared" ref="M35:M37" si="7">C35/L35</f>
         <v>0.60606060606060608</v>
       </c>
-      <c r="N35" s="23">
+      <c r="N35" s="17">
         <f t="shared" ref="N35:N37" ca="1" si="8">IF(D35&lt;=TODAY(),IF(E35&lt;=TODAY(),L35,TODAY()-D35),0)</f>
-        <v>118</v>
-      </c>
-      <c r="O35" s="24">
+        <v>119</v>
+      </c>
+      <c r="O35" s="18">
         <f t="shared" ref="O35:O37" ca="1" si="9">N35*M35</f>
-        <v>71.515151515151516</v>
-      </c>
-      <c r="P35" s="24"/>
+        <v>72.121212121212125</v>
+      </c>
+      <c r="P35" s="18"/>
     </row>
     <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20" t="s">
+      <c r="A36" s="45"/>
+      <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="12">
         <v>10</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="15">
         <v>45139</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="15">
         <v>45248</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="12">
         <v>30</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="16">
         <v>0</v>
       </c>
-      <c r="H36" s="18" t="str">
+      <c r="H36" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A Iniciar</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="1">
         <f t="shared" si="5"/>
         <v>109</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="1">
         <f t="shared" si="7"/>
         <v>9.1743119266055051E-2</v>
       </c>
-      <c r="N36" s="23">
+      <c r="N36" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
-      </c>
-      <c r="O36" s="24">
+        <v>27</v>
+      </c>
+      <c r="O36" s="18">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3853211009174311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="25" t="s">
+        <v>2.4770642201834865</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="12">
         <v>10</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="15">
         <v>45246</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="15">
         <v>45256</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="12">
         <v>30</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="16">
         <v>0</v>
       </c>
-      <c r="H37" s="18" t="str">
+      <c r="H37" s="12" t="str">
         <f t="shared" si="2"/>
         <v>A Iniciar</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="1">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N37" s="23">
+      <c r="N37" s="17">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O37" s="18">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="4"/>
+      <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C38" s="28">
+      <c r="C38" s="21">
         <f>SUM(C6:C37)</f>
         <v>237</v>
       </c>
-      <c r="H38" s="29"/>
-      <c r="J38" s="4">
+      <c r="H38" s="22"/>
+      <c r="J38" s="1">
         <f>SUM(J6:J37)</f>
         <v>138.5</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="1">
         <f ca="1">SUM(O6:O37)</f>
-        <v>149.85661296694613</v>
+        <v>150.77371493788684</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="M39" s="4">
+      <c r="M39" s="1">
         <f>J38/C38</f>
         <v>0.58438818565400841</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="M40" s="4">
+      <c r="M40" s="1">
         <f ca="1">J38/O38</f>
-        <v>0.92421680470349976</v>
+        <v>0.91859512818303146</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
@@ -3017,12 +3021,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3032,10 +3030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5020E137-BE5F-4BC7-A867-087B40C03792}">
-  <dimension ref="B1:I24"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3045,380 +3043,343 @@
     <col min="9" max="9" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="40"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+    </row>
+    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="63" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C6" s="36">
         <f ca="1">Plan1!O38</f>
-        <v>149.85661296694613</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="65" t="s">
+        <v>150.77371493788684</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F6" s="36">
         <f>Plan1!J38</f>
         <v>138.5</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="65" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="66">
-        <f ca="1">F5/C5</f>
-        <v>0.92421680470349976</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="42"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="57" t="s">
+      <c r="I6" s="38">
+        <f ca="1">F6/C6</f>
+        <v>0.91859512818303146</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="24"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="62">
+      <c r="C8" s="68"/>
+      <c r="D8" s="34">
         <f>Plan1!J38/Plan1!C38</f>
         <v>0.58438818565400841</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="67" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
-    </row>
-    <row r="9" spans="2:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="70" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
+    </row>
+    <row r="10" spans="2:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C10" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D10" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E10" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F10" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G10" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H10" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="72" t="s">
+      <c r="I10" s="41" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C11" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D11">
         <v>12</v>
       </c>
-      <c r="E10" s="31">
-        <v>1</v>
-      </c>
-      <c r="F10" s="31">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <f>17+16</f>
         <v>33</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G11">
         <v>8</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H11">
         <v>17</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I11" s="26">
         <v>45047</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="42" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F12">
         <v>16</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H12">
         <v>14</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I12" s="26">
         <v>45139</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="42"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="43"/>
-    </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="24"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="31">
+      <c r="C14" s="70"/>
+      <c r="D14">
         <f>COUNTA(Tabela1[Sprint])</f>
         <v>2</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="33" t="s">
+      <c r="F14" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="47">
-        <f>SUM(Tabela1[Qtd Horas])/D13</f>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="27">
+        <f>SUM(Tabela1[Qtd Horas])/D14</f>
         <v>24.5</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="42"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="43"/>
-    </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="24"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="31">
+      <c r="C16" s="56"/>
+      <c r="D16">
         <v>0</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="33" t="s">
+      <c r="F16" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="48">
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="28">
         <f>SUM(Tabela1[Qtd Horas No Prazo])/SUM(Tabela1[Qtd Horas])</f>
         <v>0.63265306122448983</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="42"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="43"/>
-    </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="24"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="31">
+      <c r="C18" s="56"/>
+      <c r="D18">
         <f>SUM(Tabela1[Qtd Demandas No prazo])</f>
         <v>12</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="33" t="s">
+      <c r="F18" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="48">
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="28">
         <f>SUM(Tabela1[Qtd Demandas No prazo])/SUM(Tabela1[Qtd Demandas Planejadas])</f>
         <v>0.70588235294117652</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="42"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="43"/>
-    </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="49"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="36" t="s">
+      <c r="B19" s="24"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="29"/>
+      <c r="F20" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="43">
-        <f>D17/D13</f>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="25">
+        <f>D18/D14</f>
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-    </row>
     <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+    </row>
+    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="73"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="74"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="42"/>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="24"/>
+      <c r="C24" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="75">
-        <f ca="1">F5/C5</f>
-        <v>0.92421680470349976</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32" t="s">
+      <c r="D24" s="44">
+        <f ca="1">F6/C6</f>
+        <v>0.91859512818303146</v>
+      </c>
+      <c r="G24" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H24" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="43"/>
-    </row>
-    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B1:I3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B2:I4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/gestao_projetos/Métricas do Projeto.xlsx
+++ b/gestao_projetos/Métricas do Projeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\ProjetoIntegrador\gestao_projetos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F46A6DA-F321-4548-A8EC-0A4F8FA909EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C7D343-07A1-4B64-8A29-03669CFE0FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8811EB05-482D-484B-B939-AD349BE83675}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>BullkApp</t>
   </si>
@@ -348,9 +348,6 @@
   </si>
   <si>
     <t>Qtd bugs no sistema</t>
-  </si>
-  <si>
-    <t>??????</t>
   </si>
 </sst>
 </file>
@@ -715,7 +712,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -846,6 +843,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -855,63 +894,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1252,9 +1250,9 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="O38" sqref="O38"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3008,12 +3006,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
@@ -3021,6 +3013,12 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3033,7 +3031,7 @@
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3045,48 +3043,48 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
     </row>
     <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
@@ -3118,10 +3116,10 @@
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="34">
         <f>Plan1!J38/Plan1!C38</f>
         <v>0.58438818565400841</v>
@@ -3133,16 +3131,16 @@
       <c r="I8" s="32"/>
     </row>
     <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
     </row>
     <row r="10" spans="2:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="39" t="s">
@@ -3228,19 +3226,19 @@
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="64"/>
       <c r="D14">
         <f>COUNTA(Tabela1[Sprint])</f>
         <v>2</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
       <c r="I14" s="27">
         <f>SUM(Tabela1[Qtd Horas])/D14</f>
         <v>24.5</v>
@@ -3251,18 +3249,18 @@
       <c r="I15" s="25"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="65"/>
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
       <c r="I16" s="28">
         <f>SUM(Tabela1[Qtd Horas No Prazo])/SUM(Tabela1[Qtd Horas])</f>
         <v>0.63265306122448983</v>
@@ -3273,19 +3271,19 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="65"/>
       <c r="D18">
         <f>SUM(Tabela1[Qtd Demandas No prazo])</f>
         <v>12</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
       <c r="I18" s="28">
         <f>SUM(Tabela1[Qtd Demandas No prazo])/SUM(Tabela1[Qtd Demandas Planejadas])</f>
         <v>0.70588235294117652</v>
@@ -3297,11 +3295,11 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="29"/>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
       <c r="I20" s="25">
         <f>D18/D14</f>
         <v>6</v>
@@ -3318,16 +3316,16 @@
       <c r="I21" s="32"/>
     </row>
     <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="68"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="42"/>
@@ -3351,8 +3349,9 @@
       <c r="G24" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="H24" t="s">
-        <v>92</v>
+      <c r="H24" s="74">
+        <f>25/60</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I24" s="25"/>
     </row>
@@ -3368,18 +3367,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="B2:I4"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F20:H20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
